--- a/Symphony/NOVEMBER/13.11.2021/MC Bank Statement November-2021.xlsx
+++ b/Symphony/NOVEMBER/13.11.2021/MC Bank Statement November-2021.xlsx
@@ -682,9 +682,6 @@
     <t>02.11.2021</t>
   </si>
   <si>
-    <t>Symphony  Balance(+)</t>
-  </si>
-  <si>
     <t>03.11.2021</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tutul </t>
+  </si>
+  <si>
+    <t>Symphony  Balance(-)</t>
   </si>
 </sst>
 </file>
@@ -3022,12 +3022,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3059,6 +3053,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5079,7 +5079,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="326"/>
       <c r="B9" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="293">
         <v>700000</v>
@@ -5098,7 +5098,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="326"/>
       <c r="B10" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="296">
         <v>500000</v>
@@ -5117,7 +5117,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="326"/>
       <c r="B11" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="293">
         <v>0</v>
@@ -5136,7 +5136,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="326"/>
       <c r="B12" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="293">
         <v>600000</v>
@@ -5155,7 +5155,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="326"/>
       <c r="B13" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="293">
         <v>0</v>
@@ -5174,7 +5174,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="326"/>
       <c r="B14" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="293">
         <v>160000</v>
@@ -5193,7 +5193,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="326"/>
       <c r="B15" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="293">
         <v>420000</v>
@@ -5212,7 +5212,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="326"/>
       <c r="B16" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="293">
         <v>1100000</v>
@@ -5231,7 +5231,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="326"/>
       <c r="B17" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="293">
         <v>0</v>
@@ -6117,67 +6117,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="329" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
-      <c r="P1" s="331"/>
-      <c r="Q1" s="331"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
+      <c r="J1" s="329"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="330" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
-      <c r="J2" s="332"/>
-      <c r="K2" s="332"/>
-      <c r="L2" s="332"/>
-      <c r="M2" s="332"/>
-      <c r="N2" s="332"/>
-      <c r="O2" s="332"/>
-      <c r="P2" s="332"/>
-      <c r="Q2" s="332"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="331" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="335"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="333"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6186,49 +6186,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="334" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="336" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="327" t="s">
+      <c r="C4" s="338" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="327" t="s">
+      <c r="D4" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="327" t="s">
+      <c r="F4" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="327" t="s">
+      <c r="G4" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="327" t="s">
+      <c r="H4" s="338" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="327" t="s">
+      <c r="I4" s="338" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="327" t="s">
+      <c r="J4" s="338" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="327" t="s">
+      <c r="K4" s="338" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="327" t="s">
+      <c r="L4" s="338" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="327" t="s">
+      <c r="M4" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="327" t="s">
+      <c r="N4" s="338" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="329" t="s">
+      <c r="O4" s="327" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="340" t="s">
@@ -6244,21 +6244,21 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="337"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="328"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
-      <c r="J5" s="328"/>
-      <c r="K5" s="328"/>
-      <c r="L5" s="328"/>
-      <c r="M5" s="328"/>
-      <c r="N5" s="328"/>
-      <c r="O5" s="330"/>
+      <c r="A5" s="335"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
+      <c r="G5" s="339"/>
+      <c r="H5" s="339"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="339"/>
+      <c r="K5" s="339"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="339"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="328"/>
       <c r="P5" s="341"/>
       <c r="Q5" s="145" t="s">
         <v>55</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="8" spans="1:24" s="14" customFormat="1">
       <c r="A8" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="98">
         <v>1000</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="9" spans="1:24" s="14" customFormat="1">
       <c r="A9" s="90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="98">
         <v>800</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="10" spans="1:24" s="14" customFormat="1">
       <c r="A10" s="90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="98">
         <v>1250</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="11" spans="1:24" s="14" customFormat="1">
       <c r="A11" s="90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" s="98">
         <v>900</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="12" spans="1:24" s="14" customFormat="1">
       <c r="A12" s="90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="98">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1">
       <c r="A13" s="90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="98">
         <v>1050</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="14" spans="1:24" s="14" customFormat="1">
       <c r="A14" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="98">
         <v>800</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="16" spans="1:24" s="14" customFormat="1">
       <c r="A16" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="98">
         <v>1350</v>
@@ -9300,8 +9300,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9319,6 +9317,8 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9332,8 +9332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="64">
         <v>345060</v>
@@ -10113,7 +10113,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="64">
         <v>308390</v>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="201" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="64">
         <v>441760</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="64">
         <v>818490</v>
@@ -10449,7 +10449,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="64">
         <v>319960</v>
@@ -10561,7 +10561,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="64">
         <v>418770</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="64">
         <v>453010</v>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="64">
         <v>332550</v>
@@ -10897,20 +10897,20 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="64">
         <v>418160</v>
       </c>
       <c r="C15" s="67">
-        <v>419200</v>
+        <v>468000</v>
       </c>
       <c r="D15" s="64">
         <v>2060</v>
       </c>
       <c r="E15" s="64">
         <f t="shared" si="0"/>
-        <v>421260</v>
+        <v>470060</v>
       </c>
       <c r="F15" s="256"/>
       <c r="G15" s="275">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="C33" s="301">
         <f>SUM(C5:C32)</f>
-        <v>4787240</v>
+        <v>4836040</v>
       </c>
       <c r="D33" s="300">
         <f>SUM(D5:D32)</f>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="E33" s="300">
         <f>SUM(E5:E32)</f>
-        <v>4816440</v>
+        <v>4865240</v>
       </c>
       <c r="F33" s="300">
         <f>B33-E33</f>
-        <v>-9430</v>
+        <v>-58230</v>
       </c>
       <c r="G33" s="302"/>
       <c r="H33" s="157"/>
@@ -13292,7 +13292,7 @@
         <v>2380</v>
       </c>
       <c r="E38" s="194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="150"/>
       <c r="G38" s="157"/>
@@ -13392,7 +13392,7 @@
         <v>123</v>
       </c>
       <c r="B39" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="312" t="s">
         <v>146</v>
@@ -13401,7 +13401,7 @@
         <v>1260</v>
       </c>
       <c r="E39" s="194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F39" s="150"/>
       <c r="G39" s="157"/>
@@ -13501,7 +13501,7 @@
         <v>123</v>
       </c>
       <c r="B40" s="135" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="134" t="s">
         <v>146</v>
@@ -13510,7 +13510,7 @@
         <v>100</v>
       </c>
       <c r="E40" s="194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F40" s="150"/>
       <c r="G40" s="163"/>
@@ -13610,7 +13610,7 @@
         <v>123</v>
       </c>
       <c r="B41" s="135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" s="134" t="s">
         <v>146</v>
@@ -13619,7 +13619,7 @@
         <v>1000</v>
       </c>
       <c r="E41" s="194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F41" s="155"/>
       <c r="G41" s="164" t="s">
@@ -13721,7 +13721,7 @@
         <v>123</v>
       </c>
       <c r="B42" s="135" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="134" t="s">
         <v>146</v>
@@ -13730,7 +13730,7 @@
         <v>2200</v>
       </c>
       <c r="E42" s="194" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F42" s="156"/>
       <c r="G42" s="165"/>
@@ -14159,10 +14159,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="231">
-        <v>590380</v>
+        <v>559940</v>
       </c>
       <c r="E46" s="204" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F46" s="149"/>
       <c r="G46" s="156"/>
@@ -14406,7 +14406,7 @@
         <v>180706</v>
       </c>
       <c r="E48" s="197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F48" s="150"/>
       <c r="G48" s="156"/>
@@ -14525,10 +14525,10 @@
         <v>1711460131</v>
       </c>
       <c r="D49" s="232">
-        <v>203540</v>
+        <v>218030</v>
       </c>
       <c r="E49" s="196" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F49" s="150"/>
       <c r="G49" s="156"/>
@@ -14769,7 +14769,7 @@
         <v>1712688979</v>
       </c>
       <c r="D51" s="232">
-        <v>88150</v>
+        <v>55300</v>
       </c>
       <c r="E51" s="198" t="s">
         <v>207</v>
@@ -14894,7 +14894,7 @@
         <v>16330</v>
       </c>
       <c r="E52" s="196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F52" s="150"/>
       <c r="G52" s="156"/>
@@ -15016,7 +15016,7 @@
         <v>33950</v>
       </c>
       <c r="E53" s="198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F53" s="150"/>
       <c r="G53" s="156"/>
@@ -15708,7 +15708,7 @@
         <v>22000</v>
       </c>
       <c r="E59" s="198" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F59" s="150"/>
       <c r="G59" s="156"/>
@@ -18250,7 +18250,7 @@
         <v>6110</v>
       </c>
       <c r="E81" s="198" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F81" s="150"/>
       <c r="G81" s="156"/>
@@ -18492,7 +18492,7 @@
         <v>32540</v>
       </c>
       <c r="E83" s="198" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F83" s="152"/>
       <c r="G83" s="156"/>
@@ -18602,7 +18602,7 @@
         <v>10000</v>
       </c>
       <c r="E84" s="197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F84" s="152"/>
       <c r="G84" s="156"/>
@@ -18930,17 +18930,17 @@
     </row>
     <row r="87" spans="1:97">
       <c r="A87" s="249" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B87" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" s="134"/>
       <c r="D87" s="232">
         <v>200</v>
       </c>
       <c r="E87" s="196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F87" s="150"/>
       <c r="G87" s="156"/>
@@ -21854,17 +21854,17 @@
     </row>
     <row r="115" spans="1:97">
       <c r="A115" s="249" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="69" t="s">
         <v>195</v>
-      </c>
-      <c r="B115" s="69" t="s">
-        <v>196</v>
       </c>
       <c r="C115" s="134"/>
       <c r="D115" s="232">
         <v>10000</v>
       </c>
       <c r="E115" s="198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F115" s="156"/>
       <c r="G115" s="156"/>
@@ -22306,7 +22306,7 @@
       <c r="C119" s="355"/>
       <c r="D119" s="235">
         <f>SUM(D37:D118)</f>
-        <v>2174491</v>
+        <v>2125691</v>
       </c>
       <c r="E119" s="227"/>
       <c r="F119" s="156"/>
@@ -22513,7 +22513,7 @@
       <c r="C121" s="343"/>
       <c r="D121" s="235">
         <f>D119+M121</f>
-        <v>2174491</v>
+        <v>2125691</v>
       </c>
       <c r="E121" s="227"/>
       <c r="F121" s="156"/>
@@ -33746,7 +33746,7 @@
   <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33788,7 +33788,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="359" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="360"/>
       <c r="C3" s="360"/>
@@ -33970,7 +33970,9 @@
       <c r="D8" s="315" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="280"/>
+      <c r="E8" s="280">
+        <v>1018280.0354952402</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="307"/>
       <c r="H8" s="307"/>
@@ -34069,7 +34071,9 @@
       <c r="D11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="279"/>
+      <c r="E11" s="279">
+        <v>2125691</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="264"/>
       <c r="H11" s="308"/>
@@ -34144,9 +34148,11 @@
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="282"/>
+        <v>210</v>
+      </c>
+      <c r="E13" s="282">
+        <v>-1904</v>
+      </c>
       <c r="F13" s="8" t="s">
         <v>62</v>
       </c>
@@ -34255,12 +34261,12 @@
       </c>
       <c r="E16" s="283">
         <f>E6+E7+E8+E11+E12+E13</f>
-        <v>4954109.4257285697</v>
+        <v>8096176.46122381</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="128">
         <f>B16-E16</f>
-        <v>3142067.0354952402</v>
+        <v>0</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="8"/>
@@ -34522,7 +34528,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="60">
-        <v>88150</v>
+        <v>55300</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
@@ -34628,7 +34634,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="318">
-        <v>590380</v>
+        <v>560000</v>
       </c>
       <c r="C26" s="140"/>
       <c r="D26" s="319" t="s">
